--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H2">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I2">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J2">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.7665913908851</v>
+        <v>39.92976633333334</v>
       </c>
       <c r="N2">
-        <v>39.7665913908851</v>
+        <v>119.789299</v>
       </c>
       <c r="O2">
-        <v>0.8152232014106131</v>
+        <v>0.7836943683202753</v>
       </c>
       <c r="P2">
-        <v>0.8152232014106131</v>
+        <v>0.8192290241759874</v>
       </c>
       <c r="Q2">
-        <v>33.55885322529633</v>
+        <v>42.82193254854511</v>
       </c>
       <c r="R2">
-        <v>33.55885322529633</v>
+        <v>385.397392936906</v>
       </c>
       <c r="S2">
-        <v>0.2252841676150141</v>
+        <v>0.230371143316502</v>
       </c>
       <c r="T2">
-        <v>0.2252841676150141</v>
+        <v>0.2777318306405521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H3">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I3">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J3">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.7892792392722</v>
+        <v>3.113941333333333</v>
       </c>
       <c r="N3">
-        <v>2.7892792392722</v>
+        <v>9.341823999999999</v>
       </c>
       <c r="O3">
-        <v>0.05718079099907063</v>
+        <v>0.06111676852403306</v>
       </c>
       <c r="P3">
-        <v>0.05718079099907063</v>
+        <v>0.06388795512981353</v>
       </c>
       <c r="Q3">
-        <v>2.353860598083777</v>
+        <v>3.339488256028444</v>
       </c>
       <c r="R3">
-        <v>2.353860598083777</v>
+        <v>30.05539430425599</v>
       </c>
       <c r="S3">
-        <v>0.0158017177154718</v>
+        <v>0.01796560037922534</v>
       </c>
       <c r="T3">
-        <v>0.0158017177154718</v>
+        <v>0.02165904552995042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H4">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I4">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J4">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.224997559232255</v>
+        <v>0.3581776666666667</v>
       </c>
       <c r="N4">
-        <v>0.224997559232255</v>
+        <v>1.074533</v>
       </c>
       <c r="O4">
-        <v>0.004612495668636448</v>
+        <v>0.007029888877422099</v>
       </c>
       <c r="P4">
-        <v>0.004612495668636448</v>
+        <v>0.007348641559667998</v>
       </c>
       <c r="Q4">
-        <v>0.1898744599984964</v>
+        <v>0.3841209526335556</v>
       </c>
       <c r="R4">
-        <v>0.1898744599984964</v>
+        <v>3.457088573702</v>
       </c>
       <c r="S4">
-        <v>0.001274647538905401</v>
+        <v>0.002066473364547452</v>
       </c>
       <c r="T4">
-        <v>0.001274647538905401</v>
+        <v>0.002491307818519619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H5">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I5">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J5">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.99913625856456</v>
+        <v>0.918732</v>
       </c>
       <c r="N5">
-        <v>5.99913625856456</v>
+        <v>2.756196</v>
       </c>
       <c r="O5">
-        <v>0.1229835119216798</v>
+        <v>0.0180317883251564</v>
       </c>
       <c r="P5">
-        <v>0.1229835119216798</v>
+        <v>0.01884939454832071</v>
       </c>
       <c r="Q5">
-        <v>5.062644952412667</v>
+        <v>0.9852769837359999</v>
       </c>
       <c r="R5">
-        <v>5.062644952412667</v>
+        <v>8.867492853624</v>
       </c>
       <c r="S5">
-        <v>0.03398607653180822</v>
+        <v>0.005300540440798217</v>
       </c>
       <c r="T5">
-        <v>0.03398607653180822</v>
+        <v>0.006390248269873983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8506916160840849</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H6">
-        <v>0.8506916160840849</v>
+        <v>3.217294</v>
       </c>
       <c r="I6">
-        <v>0.278572055213021</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J6">
-        <v>0.278572055213021</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>39.7665913908851</v>
+        <v>6.630069499999999</v>
       </c>
       <c r="N6">
-        <v>39.7665913908851</v>
+        <v>13.260139</v>
       </c>
       <c r="O6">
-        <v>0.8152232014106131</v>
+        <v>0.1301271859531131</v>
       </c>
       <c r="P6">
-        <v>0.8152232014106131</v>
+        <v>0.09068498458621042</v>
       </c>
       <c r="Q6">
-        <v>33.8291058964675</v>
+        <v>7.110294273977666</v>
       </c>
       <c r="R6">
-        <v>33.8291058964675</v>
+        <v>42.661765643866</v>
       </c>
       <c r="S6">
-        <v>0.2270984026742931</v>
+        <v>0.03825158099429737</v>
       </c>
       <c r="T6">
-        <v>0.2270984026742931</v>
+        <v>0.03074367000860553</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H7">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I7">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J7">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.7892792392722</v>
+        <v>39.92976633333334</v>
       </c>
       <c r="N7">
-        <v>2.7892792392722</v>
+        <v>119.789299</v>
       </c>
       <c r="O7">
-        <v>0.05718079099907063</v>
+        <v>0.7836943683202753</v>
       </c>
       <c r="P7">
-        <v>0.05718079099907063</v>
+        <v>0.8192290241759874</v>
       </c>
       <c r="Q7">
-        <v>2.372816463766255</v>
+        <v>44.75474619783223</v>
       </c>
       <c r="R7">
-        <v>2.372816463766255</v>
+        <v>402.7927157804901</v>
       </c>
       <c r="S7">
-        <v>0.01592897046731732</v>
+        <v>0.2407691908520549</v>
       </c>
       <c r="T7">
-        <v>0.01592897046731732</v>
+        <v>0.2902675533685026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H8">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I8">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J8">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.224997559232255</v>
+        <v>3.113941333333333</v>
       </c>
       <c r="N8">
-        <v>0.224997559232255</v>
+        <v>9.341823999999999</v>
       </c>
       <c r="O8">
-        <v>0.004612495668636448</v>
+        <v>0.06111676852403306</v>
       </c>
       <c r="P8">
-        <v>0.004612495668636448</v>
+        <v>0.06388795512981353</v>
       </c>
       <c r="Q8">
-        <v>0.1914035372782616</v>
+        <v>3.490219624248889</v>
       </c>
       <c r="R8">
-        <v>0.1914035372782616</v>
+        <v>31.41197661824</v>
       </c>
       <c r="S8">
-        <v>0.001284912398073213</v>
+        <v>0.01877649693535903</v>
       </c>
       <c r="T8">
-        <v>0.001284912398073213</v>
+        <v>0.02263664967668905</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H9">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I9">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J9">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.99913625856456</v>
+        <v>0.3581776666666667</v>
       </c>
       <c r="N9">
-        <v>5.99913625856456</v>
+        <v>1.074533</v>
       </c>
       <c r="O9">
-        <v>0.1229835119216798</v>
+        <v>0.007029888877422099</v>
       </c>
       <c r="P9">
-        <v>0.1229835119216798</v>
+        <v>0.007348641559667998</v>
       </c>
       <c r="Q9">
-        <v>5.103414918906917</v>
+        <v>0.4014586619811111</v>
       </c>
       <c r="R9">
-        <v>5.103414918906917</v>
+        <v>3.61312795783</v>
       </c>
       <c r="S9">
-        <v>0.03425976967333742</v>
+        <v>0.002159745846361711</v>
       </c>
       <c r="T9">
-        <v>0.03425976967333742</v>
+        <v>0.002603755657036754</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.35917064688581</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H10">
-        <v>1.35917064688581</v>
+        <v>3.36251</v>
       </c>
       <c r="I10">
-        <v>0.4450813353857795</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J10">
-        <v>0.4450813353857795</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>39.7665913908851</v>
+        <v>0.918732</v>
       </c>
       <c r="N10">
-        <v>39.7665913908851</v>
+        <v>2.756196</v>
       </c>
       <c r="O10">
-        <v>0.8152232014106131</v>
+        <v>0.0180317883251564</v>
       </c>
       <c r="P10">
-        <v>0.8152232014106131</v>
+        <v>0.01884939454832071</v>
       </c>
       <c r="Q10">
-        <v>54.04958374519298</v>
+        <v>1.02974851244</v>
       </c>
       <c r="R10">
-        <v>54.04958374519298</v>
+        <v>9.267736611960002</v>
       </c>
       <c r="S10">
-        <v>0.362840631121306</v>
+        <v>0.005539785993318736</v>
       </c>
       <c r="T10">
-        <v>0.362840631121306</v>
+        <v>0.006678678948810388</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.35917064688581</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H11">
-        <v>1.35917064688581</v>
+        <v>3.36251</v>
       </c>
       <c r="I11">
-        <v>0.4450813353857795</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J11">
-        <v>0.4450813353857795</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.7892792392722</v>
+        <v>6.630069499999999</v>
       </c>
       <c r="N11">
-        <v>2.7892792392722</v>
+        <v>13.260139</v>
       </c>
       <c r="O11">
-        <v>0.05718079099907063</v>
+        <v>0.1301271859531131</v>
       </c>
       <c r="P11">
-        <v>0.05718079099907063</v>
+        <v>0.09068498458621042</v>
       </c>
       <c r="Q11">
-        <v>3.791106467986756</v>
+        <v>7.431224998148333</v>
       </c>
       <c r="R11">
-        <v>3.791106467986756</v>
+        <v>44.58734998889</v>
       </c>
       <c r="S11">
-        <v>0.02545010281628152</v>
+        <v>0.03997810694612765</v>
       </c>
       <c r="T11">
-        <v>0.02545010281628152</v>
+        <v>0.03213131838142121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H12">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I12">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J12">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.224997559232255</v>
+        <v>39.92976633333334</v>
       </c>
       <c r="N12">
-        <v>0.224997559232255</v>
+        <v>119.789299</v>
       </c>
       <c r="O12">
-        <v>0.004612495668636448</v>
+        <v>0.7836943683202753</v>
       </c>
       <c r="P12">
-        <v>0.004612495668636448</v>
+        <v>0.8192290241759874</v>
       </c>
       <c r="Q12">
-        <v>0.3058100781294324</v>
+        <v>0.01055476823411111</v>
       </c>
       <c r="R12">
-        <v>0.3058100781294324</v>
+        <v>0.094992914107</v>
       </c>
       <c r="S12">
-        <v>0.002052935731657834</v>
+        <v>5.678197785156908E-05</v>
       </c>
       <c r="T12">
-        <v>0.002052935731657834</v>
+        <v>6.845546030234037E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.000793</v>
+      </c>
+      <c r="I13">
+        <v>7.245423745135779E-05</v>
+      </c>
+      <c r="J13">
+        <v>8.356083376220166E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.113941333333333</v>
+      </c>
+      <c r="N13">
+        <v>9.341823999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.06111676852403306</v>
+      </c>
+      <c r="P13">
+        <v>0.06388795512981353</v>
+      </c>
+      <c r="Q13">
+        <v>0.0008231184924444443</v>
+      </c>
+      <c r="R13">
+        <v>0.007408066431999999</v>
+      </c>
+      <c r="S13">
+        <v>4.428168858899961E-06</v>
+      </c>
+      <c r="T13">
+        <v>5.338530798009347E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.000793</v>
+      </c>
+      <c r="I14">
+        <v>7.245423745135779E-05</v>
+      </c>
+      <c r="J14">
+        <v>8.356083376220166E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3581776666666667</v>
+      </c>
+      <c r="N14">
+        <v>1.074533</v>
+      </c>
+      <c r="O14">
+        <v>0.007029888877422099</v>
+      </c>
+      <c r="P14">
+        <v>0.007348641559667998</v>
+      </c>
+      <c r="Q14">
+        <v>9.467829655555555E-05</v>
+      </c>
+      <c r="R14">
+        <v>0.0008521046689999999</v>
+      </c>
+      <c r="S14">
+        <v>5.093452379813998E-07</v>
+      </c>
+      <c r="T14">
+        <v>6.140586157454239E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.000793</v>
+      </c>
+      <c r="I15">
+        <v>7.245423745135779E-05</v>
+      </c>
+      <c r="J15">
+        <v>8.356083376220166E-05</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.918732</v>
+      </c>
+      <c r="N15">
+        <v>2.756196</v>
+      </c>
+      <c r="O15">
+        <v>0.0180317883251564</v>
+      </c>
+      <c r="P15">
+        <v>0.01884939454832071</v>
+      </c>
+      <c r="Q15">
+        <v>0.000242851492</v>
+      </c>
+      <c r="R15">
+        <v>0.002185663428</v>
+      </c>
+      <c r="S15">
+        <v>1.306479472983503E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.575071124370377E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.000793</v>
+      </c>
+      <c r="I16">
+        <v>7.245423745135779E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.356083376220166E-05</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.630069499999999</v>
+      </c>
+      <c r="N16">
+        <v>13.260139</v>
+      </c>
+      <c r="O16">
+        <v>0.1301271859531131</v>
+      </c>
+      <c r="P16">
+        <v>0.09068498458621042</v>
+      </c>
+      <c r="Q16">
+        <v>0.001752548371166666</v>
+      </c>
+      <c r="R16">
+        <v>0.010515290227</v>
+      </c>
+      <c r="S16">
+        <v>9.428266029923846E-06</v>
+      </c>
+      <c r="T16">
+        <v>7.577712921736149E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.4547475</v>
+      </c>
+      <c r="H17">
+        <v>2.909495</v>
+      </c>
+      <c r="I17">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J17">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>39.92976633333334</v>
+      </c>
+      <c r="N17">
+        <v>119.789299</v>
+      </c>
+      <c r="O17">
+        <v>0.7836943683202753</v>
+      </c>
+      <c r="P17">
+        <v>0.8192290241759874</v>
+      </c>
+      <c r="Q17">
+        <v>58.08772774900084</v>
+      </c>
+      <c r="R17">
+        <v>348.526366494005</v>
+      </c>
+      <c r="S17">
+        <v>0.3124972521738669</v>
+      </c>
+      <c r="T17">
+        <v>0.2511611847066302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.4547475</v>
+      </c>
+      <c r="H18">
+        <v>2.909495</v>
+      </c>
+      <c r="I18">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J18">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.113941333333333</v>
+      </c>
+      <c r="N18">
+        <v>9.341823999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.06111676852403306</v>
+      </c>
+      <c r="P18">
+        <v>0.06388795512981353</v>
+      </c>
+      <c r="Q18">
+        <v>4.529998369813333</v>
+      </c>
+      <c r="R18">
+        <v>27.17999021887999</v>
+      </c>
+      <c r="S18">
+        <v>0.0243702430405898</v>
+      </c>
+      <c r="T18">
+        <v>0.01958692139237605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.4547475</v>
+      </c>
+      <c r="H19">
+        <v>2.909495</v>
+      </c>
+      <c r="I19">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J19">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3581776666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.074533</v>
+      </c>
+      <c r="O19">
+        <v>0.007029888877422099</v>
+      </c>
+      <c r="P19">
+        <v>0.007348641559667998</v>
+      </c>
+      <c r="Q19">
+        <v>0.5210580651391666</v>
+      </c>
+      <c r="R19">
+        <v>3.126348390835</v>
+      </c>
+      <c r="S19">
+        <v>0.002803160321274955</v>
+      </c>
+      <c r="T19">
+        <v>0.002252964025495879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.35917064688581</v>
-      </c>
-      <c r="H13">
-        <v>1.35917064688581</v>
-      </c>
-      <c r="I13">
-        <v>0.4450813353857795</v>
-      </c>
-      <c r="J13">
-        <v>0.4450813353857795</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.99913625856456</v>
-      </c>
-      <c r="N13">
-        <v>5.99913625856456</v>
-      </c>
-      <c r="O13">
-        <v>0.1229835119216798</v>
-      </c>
-      <c r="P13">
-        <v>0.1229835119216798</v>
-      </c>
-      <c r="Q13">
-        <v>8.153849909309312</v>
-      </c>
-      <c r="R13">
-        <v>8.153849909309312</v>
-      </c>
-      <c r="S13">
-        <v>0.0547376657165342</v>
-      </c>
-      <c r="T13">
-        <v>0.0547376657165342</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.4547475</v>
+      </c>
+      <c r="H20">
+        <v>2.909495</v>
+      </c>
+      <c r="I20">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J20">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.918732</v>
+      </c>
+      <c r="N20">
+        <v>2.756196</v>
+      </c>
+      <c r="O20">
+        <v>0.0180317883251564</v>
+      </c>
+      <c r="P20">
+        <v>0.01884939454832071</v>
+      </c>
+      <c r="Q20">
+        <v>1.33652308017</v>
+      </c>
+      <c r="R20">
+        <v>8.019138481019999</v>
+      </c>
+      <c r="S20">
+        <v>0.007190155411566462</v>
+      </c>
+      <c r="T20">
+        <v>0.005778892258511967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.4547475</v>
+      </c>
+      <c r="H21">
+        <v>2.909495</v>
+      </c>
+      <c r="I21">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J21">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.630069499999999</v>
+      </c>
+      <c r="N21">
+        <v>13.260139</v>
+      </c>
+      <c r="O21">
+        <v>0.1301271859531131</v>
+      </c>
+      <c r="P21">
+        <v>0.09068498458621042</v>
+      </c>
+      <c r="Q21">
+        <v>9.645077029951247</v>
+      </c>
+      <c r="R21">
+        <v>38.58030811980499</v>
+      </c>
+      <c r="S21">
+        <v>0.05188806974665815</v>
+      </c>
+      <c r="T21">
+        <v>0.02780241848326194</v>
       </c>
     </row>
   </sheetData>
